--- a/src/data/PromoSRValueVsTarget.xlsx
+++ b/src/data/PromoSRValueVsTarget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KPI\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32574CC1-355C-41D3-9456-E6DF6D099015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FE372-4CB7-4614-A5B2-A976A5288FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TargetSR" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Mihai Ardoare</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>DataOfTarget</t>
+  </si>
+  <si>
+    <t>ValueSR</t>
   </si>
 </sst>
 </file>
@@ -361,8 +364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -411,12 +414,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C7282-D699-40FF-A0D0-2BC5D9BB3375}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43835</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>